--- a/output/SAFRA_19226446000167.xlsx
+++ b/output/SAFRA_19226446000167.xlsx
@@ -1021,10 +1021,10 @@
         <v>44165</v>
       </c>
       <c r="B58">
-        <v>0.5580178900000001</v>
+        <v>0.5596770499999999</v>
       </c>
       <c r="C58">
-        <v>0.01640259236571562</v>
+        <v>0.01748497693650464</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFRA_19226446000167.xlsx
+++ b/output/SAFRA_19226446000167.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFRA GLOBAL EQUITIES FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,645 +383,474 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42460</v>
       </c>
       <c r="B2">
-        <v>0.01296210999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42490</v>
       </c>
       <c r="B3">
-        <v>0.02704196000000003</v>
-      </c>
-      <c r="C3">
         <v>0.01389968080839687</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42521</v>
       </c>
       <c r="B4">
-        <v>0.04445929999999998</v>
-      </c>
-      <c r="C4">
         <v>0.01695874236725436</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42551</v>
       </c>
       <c r="B5">
-        <v>0.02146764999999995</v>
-      </c>
-      <c r="C5">
         <v>-0.02201296881553927</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42582</v>
       </c>
       <c r="B6">
-        <v>0.04644282999999993</v>
-      </c>
-      <c r="C6">
         <v>0.02445028973751628</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42613</v>
       </c>
       <c r="B7">
-        <v>0.05906568999999995</v>
-      </c>
-      <c r="C7">
         <v>0.01206263700043708</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42643</v>
       </c>
       <c r="B8">
-        <v>0.06401257000000005</v>
-      </c>
-      <c r="C8">
         <v>0.004670985045318599</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42674</v>
       </c>
       <c r="B9">
-        <v>0.06451406000000004</v>
-      </c>
-      <c r="C9">
         <v>0.0004713196198424807</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42704</v>
       </c>
       <c r="B10">
-        <v>0.09201784999999996</v>
-      </c>
-      <c r="C10">
         <v>0.02583694385398716</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42735</v>
       </c>
       <c r="B11">
-        <v>0.1195182299999999</v>
-      </c>
-      <c r="C11">
         <v>0.02518308652189161</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42766</v>
       </c>
       <c r="B12">
-        <v>0.12903278</v>
-      </c>
-      <c r="C12">
         <v>0.008498789698136555</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42794</v>
       </c>
       <c r="B13">
-        <v>0.1537726100000001</v>
-      </c>
-      <c r="C13">
         <v>0.02191241072734851</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42825</v>
       </c>
       <c r="B14">
-        <v>0.1601834</v>
-      </c>
-      <c r="C14">
         <v>0.005556372152048183</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42855</v>
       </c>
       <c r="B15">
-        <v>0.1830892500000001</v>
-      </c>
-      <c r="C15">
         <v>0.01974330092983578</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42886</v>
       </c>
       <c r="B16">
-        <v>0.1842017900000001</v>
-      </c>
-      <c r="C16">
         <v>0.0009403686154700885</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42916</v>
       </c>
       <c r="B17">
-        <v>0.1954945800000001</v>
-      </c>
-      <c r="C17">
         <v>0.009536204129534376</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42947</v>
       </c>
       <c r="B18">
-        <v>0.22194913</v>
-      </c>
-      <c r="C18">
         <v>0.02212854030672395</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42978</v>
       </c>
       <c r="B19">
-        <v>0.2634090500000001</v>
-      </c>
-      <c r="C19">
         <v>0.0339293338667872</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43008</v>
       </c>
       <c r="B20">
-        <v>0.28142924</v>
-      </c>
-      <c r="C20">
         <v>0.01426314779049576</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43039</v>
       </c>
       <c r="B21">
-        <v>0.3184891999999999</v>
-      </c>
-      <c r="C21">
         <v>0.02892080096439797</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43069</v>
       </c>
       <c r="B22">
-        <v>0.2951539299999999</v>
-      </c>
-      <c r="C22">
         <v>-0.01769849157657111</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43100</v>
       </c>
       <c r="B23">
-        <v>0.32204327</v>
-      </c>
-      <c r="C23">
         <v>0.02076150129892285</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43131</v>
       </c>
       <c r="B24">
-        <v>0.3979000699999999</v>
-      </c>
-      <c r="C24">
         <v>0.05737845479142289</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43159</v>
       </c>
       <c r="B25">
-        <v>0.36747255</v>
-      </c>
-      <c r="C25">
         <v>-0.02176659165629768</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43190</v>
       </c>
       <c r="B26">
-        <v>0.3452471099999999</v>
-      </c>
-      <c r="C26">
         <v>-0.01625293319416188</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43220</v>
       </c>
       <c r="B27">
-        <v>0.35623369</v>
-      </c>
-      <c r="C27">
         <v>0.008166960492485442</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43251</v>
       </c>
       <c r="B28">
-        <v>0.28922549</v>
-      </c>
-      <c r="C28">
         <v>-0.04940756190771234</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43281</v>
       </c>
       <c r="B29">
-        <v>0.2972047099999999</v>
-      </c>
-      <c r="C29">
         <v>0.00618915780202256</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43312</v>
       </c>
       <c r="B30">
-        <v>0.3124316200000001</v>
-      </c>
-      <c r="C30">
         <v>0.01173824754305763</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43343</v>
       </c>
       <c r="B31">
-        <v>0.3465351799999998</v>
-      </c>
-      <c r="C31">
         <v>0.02598501855662372</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43373</v>
       </c>
       <c r="B32">
-        <v>0.3465695400000002</v>
-      </c>
-      <c r="C32">
         <v>2.551734296329933e-05</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43404</v>
       </c>
       <c r="B33">
-        <v>0.36393195</v>
-      </c>
-      <c r="C33">
         <v>0.01289380866286338</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43434</v>
       </c>
       <c r="B34">
-        <v>0.39118192</v>
-      </c>
-      <c r="C34">
         <v>0.01997898062289694</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43465</v>
       </c>
       <c r="B35">
-        <v>0.3701742699999999</v>
-      </c>
-      <c r="C35">
         <v>-0.0151005772127919</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43496</v>
       </c>
       <c r="B36">
-        <v>0.4259782400000001</v>
-      </c>
-      <c r="C36">
         <v>0.0407276440828217</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43524</v>
       </c>
       <c r="B37">
-        <v>0.4223990499999999</v>
-      </c>
-      <c r="C37">
         <v>-0.002509989212738706</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43555</v>
       </c>
       <c r="B38">
-        <v>0.4140774300000001</v>
-      </c>
-      <c r="C38">
         <v>-0.005850411668933408</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43585</v>
       </c>
       <c r="B39">
-        <v>0.4187272200000001</v>
-      </c>
-      <c r="C39">
         <v>0.003288214564035608</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43616</v>
       </c>
       <c r="B40">
-        <v>0.4284853799999999</v>
-      </c>
-      <c r="C40">
         <v>0.006878108675464567</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43646</v>
       </c>
       <c r="B41">
-        <v>0.44760928</v>
-      </c>
-      <c r="C41">
         <v>0.01338753638486656</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43677</v>
       </c>
       <c r="B42">
-        <v>0.46002721</v>
-      </c>
-      <c r="C42">
         <v>0.008578233209447284</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43708</v>
       </c>
       <c r="B43">
-        <v>0.4775473099999998</v>
-      </c>
-      <c r="C43">
         <v>0.01199984485220651</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43738</v>
       </c>
       <c r="B44">
-        <v>0.49059293</v>
-      </c>
-      <c r="C44">
         <v>0.008829240127681715</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43769</v>
       </c>
       <c r="B45">
-        <v>0.4948653100000002</v>
-      </c>
-      <c r="C45">
         <v>0.002866228541685167</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43799</v>
       </c>
       <c r="B46">
-        <v>0.5139927900000001</v>
-      </c>
-      <c r="C46">
         <v>0.0127954537924222</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43830</v>
       </c>
       <c r="B47">
-        <v>0.5316314600000001</v>
-      </c>
-      <c r="C47">
         <v>0.01165043196804127</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43861</v>
       </c>
       <c r="B48">
-        <v>0.5438489000000002</v>
-      </c>
-      <c r="C48">
         <v>0.007976749184820386</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43890</v>
       </c>
       <c r="B49">
-        <v>0.5286775700000002</v>
-      </c>
-      <c r="C49">
         <v>-0.009826952624703122</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43921</v>
       </c>
       <c r="B50">
-        <v>0.46254905</v>
-      </c>
-      <c r="C50">
         <v>-0.04325864479060826</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43951</v>
       </c>
       <c r="B51">
-        <v>0.48301481</v>
-      </c>
-      <c r="C51">
         <v>0.01399321274045473</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43982</v>
       </c>
       <c r="B52">
-        <v>0.5090420099999999</v>
-      </c>
-      <c r="C52">
         <v>0.01755019560458737</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>44012</v>
       </c>
       <c r="B53">
-        <v>0.52551105</v>
-      </c>
-      <c r="C53">
         <v>0.01091357290974293</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>44043</v>
       </c>
       <c r="B54">
-        <v>0.5572708700000002</v>
-      </c>
-      <c r="C54">
         <v>0.02081913467621233</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>44074</v>
       </c>
       <c r="B55">
-        <v>0.56588634</v>
-      </c>
-      <c r="C55">
         <v>0.005532415821789538</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>44104</v>
       </c>
       <c r="B56">
-        <v>0.5291579899999999</v>
-      </c>
-      <c r="C56">
         <v>-0.02345531030049097</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>44135</v>
       </c>
       <c r="B57">
-        <v>0.5328747700000001</v>
-      </c>
-      <c r="C57">
         <v>0.002430605617147696</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>44165</v>
       </c>
       <c r="B58">
-        <v>0.5596770499999999</v>
-      </c>
-      <c r="C58">
-        <v>0.01748497693650464</v>
+        <v>0.01234021876425051</v>
       </c>
     </row>
   </sheetData>
